--- a/ct_izin.xlsx
+++ b/ct_izin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efishery/Documents/Statistics Coach/DPMPTSP/Phyton codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974A671-86F0-F647-A02D-E2B31AC9CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD23BE9B-E1BB-2D44-AB5D-74AB7B95A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1580" yWindow="-18000" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,14 +1067,17 @@
     <t>average_status</t>
   </si>
   <si>
-    <t>Bidang_Recode</t>
+    <t>bidang_recode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1090,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1127,10 +1137,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1139,8 +1150,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22064,7 +22079,7 @@
   <dimension ref="A1:C1942"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43446,12 +43461,13 @@
   <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -43470,7 +43486,7 @@
       <c r="E1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>342</v>
       </c>
     </row>
@@ -43490,7 +43506,7 @@
       <c r="E2">
         <v>5494</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>8780</v>
       </c>
     </row>
@@ -43510,7 +43526,7 @@
       <c r="E3">
         <v>74</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -43530,7 +43546,7 @@
       <c r="E4">
         <v>1078</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43550,7 +43566,7 @@
       <c r="E5">
         <v>574</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43570,7 +43586,7 @@
       <c r="E6">
         <v>1056</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43590,7 +43606,7 @@
       <c r="E7">
         <v>1281</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43610,7 +43626,7 @@
       <c r="E8">
         <v>637</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43630,7 +43646,7 @@
       <c r="E9">
         <v>718</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43650,7 +43666,7 @@
       <c r="E10">
         <v>688</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43670,7 +43686,7 @@
       <c r="E11">
         <v>1413</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43690,7 +43706,7 @@
       <c r="E12">
         <v>855</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43710,7 +43726,7 @@
       <c r="E13">
         <v>1085</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43730,7 +43746,7 @@
       <c r="E14">
         <v>812</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43750,7 +43766,7 @@
       <c r="E15">
         <v>689</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43770,7 +43786,7 @@
       <c r="E16">
         <v>242</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43790,7 +43806,7 @@
       <c r="E17">
         <v>984</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43810,7 +43826,7 @@
       <c r="E18">
         <v>1908</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43830,7 +43846,7 @@
       <c r="E19">
         <v>1019</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43850,7 +43866,7 @@
       <c r="E20">
         <v>1388</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43870,7 +43886,7 @@
       <c r="E21">
         <v>950</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43890,7 +43906,7 @@
       <c r="E22">
         <v>535</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43910,7 +43926,7 @@
       <c r="E23">
         <v>1002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43930,7 +43946,7 @@
       <c r="E24">
         <v>723</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43950,7 +43966,7 @@
       <c r="E25">
         <v>913</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43970,7 +43986,7 @@
       <c r="E26">
         <v>463</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -43990,7 +44006,7 @@
       <c r="E27">
         <v>515</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44010,7 +44026,7 @@
       <c r="E28">
         <v>381</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44030,7 +44046,7 @@
       <c r="E29">
         <v>826</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44050,7 +44066,7 @@
       <c r="E30">
         <v>430</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44070,7 +44086,7 @@
       <c r="E31">
         <v>1025</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44090,7 +44106,7 @@
       <c r="E32">
         <v>760</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44110,7 +44126,7 @@
       <c r="E33">
         <v>1046</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44130,7 +44146,7 @@
       <c r="E34">
         <v>444</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44150,7 +44166,7 @@
       <c r="E35">
         <v>1304</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44170,7 +44186,7 @@
       <c r="E36">
         <v>516</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44190,7 +44206,7 @@
       <c r="E37">
         <v>1200</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44210,7 +44226,7 @@
       <c r="E38">
         <v>440</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44230,7 +44246,7 @@
       <c r="E39">
         <v>1513</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44250,7 +44266,7 @@
       <c r="E40">
         <v>1247</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44270,7 +44286,7 @@
       <c r="E41">
         <v>394</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44290,7 +44306,7 @@
       <c r="E42">
         <v>386</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44310,7 +44326,7 @@
       <c r="E43">
         <v>876</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44330,7 +44346,7 @@
       <c r="E44">
         <v>1058</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44350,7 +44366,7 @@
       <c r="E45">
         <v>1081</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>1627</v>
       </c>
     </row>
@@ -44370,7 +44386,7 @@
       <c r="E46">
         <v>60</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44390,7 +44406,7 @@
       <c r="E47">
         <v>36</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44410,7 +44426,7 @@
       <c r="E48">
         <v>80</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44430,7 +44446,7 @@
       <c r="E49">
         <v>163</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44450,7 +44466,7 @@
       <c r="E50">
         <v>149</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44470,7 +44486,7 @@
       <c r="E51">
         <v>193</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44490,7 +44506,7 @@
       <c r="E52">
         <v>65</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44510,7 +44526,7 @@
       <c r="E53">
         <v>132</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44530,7 +44546,7 @@
       <c r="E54">
         <v>240</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44550,7 +44566,7 @@
       <c r="E55">
         <v>88</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44570,7 +44586,7 @@
       <c r="E56">
         <v>252</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44590,7 +44606,7 @@
       <c r="E57">
         <v>124</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44610,7 +44626,7 @@
       <c r="E58">
         <v>79</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44630,7 +44646,7 @@
       <c r="E59">
         <v>276</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44650,7 +44666,7 @@
       <c r="E60">
         <v>281</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44670,7 +44686,7 @@
       <c r="E61">
         <v>440</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44690,7 +44706,7 @@
       <c r="E62">
         <v>178</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44710,7 +44726,7 @@
       <c r="E63">
         <v>65</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44730,7 +44746,7 @@
       <c r="E64">
         <v>144</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44750,7 +44766,7 @@
       <c r="E65">
         <v>604</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44770,7 +44786,7 @@
       <c r="E66">
         <v>419</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44790,7 +44806,7 @@
       <c r="E67">
         <v>293</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44810,7 +44826,7 @@
       <c r="E68">
         <v>313</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44830,7 +44846,7 @@
       <c r="E69">
         <v>122</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44850,7 +44866,7 @@
       <c r="E70">
         <v>151</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44870,7 +44886,7 @@
       <c r="E71">
         <v>183</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44890,7 +44906,7 @@
       <c r="E72">
         <v>96</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44910,7 +44926,7 @@
       <c r="E73">
         <v>38</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44930,7 +44946,7 @@
       <c r="E74">
         <v>627</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44950,7 +44966,7 @@
       <c r="E75">
         <v>249</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44970,7 +44986,7 @@
       <c r="E76">
         <v>176</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -44990,7 +45006,7 @@
       <c r="E77">
         <v>109</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45010,7 +45026,7 @@
       <c r="E78">
         <v>394</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45030,7 +45046,7 @@
       <c r="E79">
         <v>239</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45050,7 +45066,7 @@
       <c r="E80">
         <v>118</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45070,7 +45086,7 @@
       <c r="E81">
         <v>124</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45090,7 +45106,7 @@
       <c r="E82">
         <v>209</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45110,7 +45126,7 @@
       <c r="E83">
         <v>82</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45130,7 +45146,7 @@
       <c r="E84">
         <v>133</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45150,7 +45166,7 @@
       <c r="E85">
         <v>135</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45170,7 +45186,7 @@
       <c r="E86">
         <v>67</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45190,7 +45206,7 @@
       <c r="E87">
         <v>208</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45210,7 +45226,7 @@
       <c r="E88">
         <v>130</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45230,7 +45246,7 @@
       <c r="E89">
         <v>53</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45250,7 +45266,7 @@
       <c r="E90">
         <v>195</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45270,7 +45286,7 @@
       <c r="E91">
         <v>40</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45290,7 +45306,7 @@
       <c r="E92">
         <v>549</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45310,7 +45326,7 @@
       <c r="E93">
         <v>243</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45330,7 +45346,7 @@
       <c r="E94">
         <v>248</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45350,7 +45366,7 @@
       <c r="E95">
         <v>184</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45370,7 +45386,7 @@
       <c r="E96">
         <v>31</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45390,7 +45406,7 @@
       <c r="E97">
         <v>26</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45410,7 +45426,7 @@
       <c r="E98">
         <v>19</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45430,7 +45446,7 @@
       <c r="E99">
         <v>51</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45450,7 +45466,7 @@
       <c r="E100">
         <v>212</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45470,7 +45486,7 @@
       <c r="E101">
         <v>65</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45490,7 +45506,7 @@
       <c r="E102">
         <v>91</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45510,7 +45526,7 @@
       <c r="E103">
         <v>150</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45530,7 +45546,7 @@
       <c r="E104">
         <v>101</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45550,7 +45566,7 @@
       <c r="E105">
         <v>22</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45570,7 +45586,7 @@
       <c r="E106">
         <v>377</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45590,7 +45606,7 @@
       <c r="E107">
         <v>75</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45610,7 +45626,7 @@
       <c r="E108">
         <v>74</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45630,7 +45646,7 @@
       <c r="E109">
         <v>94</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45650,7 +45666,7 @@
       <c r="E110">
         <v>240</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45670,7 +45686,7 @@
       <c r="E111">
         <v>216</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45690,7 +45706,7 @@
       <c r="E112">
         <v>160</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45710,7 +45726,7 @@
       <c r="E113">
         <v>46</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45730,7 +45746,7 @@
       <c r="E114">
         <v>167</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45750,7 +45766,7 @@
       <c r="E115">
         <v>81</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45770,7 +45786,7 @@
       <c r="E116">
         <v>519</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45790,7 +45806,7 @@
       <c r="E117">
         <v>112</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45810,7 +45826,7 @@
       <c r="E118">
         <v>512</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45830,7 +45846,7 @@
       <c r="E119">
         <v>124</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45850,7 +45866,7 @@
       <c r="E120">
         <v>251</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45870,7 +45886,7 @@
       <c r="E121">
         <v>42</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45890,7 +45906,7 @@
       <c r="E122">
         <v>96</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45910,7 +45926,7 @@
       <c r="E123">
         <v>69</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45930,7 +45946,7 @@
       <c r="E124">
         <v>55</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45950,7 +45966,7 @@
       <c r="E125">
         <v>29</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45970,7 +45986,7 @@
       <c r="E126">
         <v>87</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -45990,7 +46006,7 @@
       <c r="E127">
         <v>146</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46010,7 +46026,7 @@
       <c r="E128">
         <v>35</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46030,7 +46046,7 @@
       <c r="E129">
         <v>208</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46050,7 +46066,7 @@
       <c r="E130">
         <v>262</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46070,7 +46086,7 @@
       <c r="E131">
         <v>324</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46090,7 +46106,7 @@
       <c r="E132">
         <v>154</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46110,7 +46126,7 @@
       <c r="E133">
         <v>109</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46130,7 +46146,7 @@
       <c r="E134">
         <v>278</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46150,7 +46166,7 @@
       <c r="E135">
         <v>70</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46170,7 +46186,7 @@
       <c r="E136">
         <v>93</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46190,7 +46206,7 @@
       <c r="E137">
         <v>46</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46210,7 +46226,7 @@
       <c r="E138">
         <v>219</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46230,7 +46246,7 @@
       <c r="E139">
         <v>224</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46250,7 +46266,7 @@
       <c r="E140">
         <v>101</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46270,7 +46286,7 @@
       <c r="E141">
         <v>131</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46290,7 +46306,7 @@
       <c r="E142">
         <v>328</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46310,7 +46326,7 @@
       <c r="E143">
         <v>197</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46330,7 +46346,7 @@
       <c r="E144">
         <v>134</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46350,7 +46366,7 @@
       <c r="E145">
         <v>42</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46370,7 +46386,7 @@
       <c r="E146">
         <v>57</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46390,7 +46406,7 @@
       <c r="E147">
         <v>259</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46410,7 +46426,7 @@
       <c r="E148">
         <v>23</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46430,7 +46446,7 @@
       <c r="E149">
         <v>271</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46450,7 +46466,7 @@
       <c r="E150">
         <v>262</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46470,7 +46486,7 @@
       <c r="E151">
         <v>108</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46490,7 +46506,7 @@
       <c r="E152">
         <v>118</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46510,7 +46526,7 @@
       <c r="E153">
         <v>348</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46530,7 +46546,7 @@
       <c r="E154">
         <v>355</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46550,7 +46566,7 @@
       <c r="E155">
         <v>48</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46570,7 +46586,7 @@
       <c r="E156">
         <v>68</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46590,7 +46606,7 @@
       <c r="E157">
         <v>100</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46610,7 +46626,7 @@
       <c r="E158">
         <v>79</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46630,7 +46646,7 @@
       <c r="E159">
         <v>99</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46650,7 +46666,7 @@
       <c r="E160">
         <v>111</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46670,7 +46686,7 @@
       <c r="E161">
         <v>70</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46690,7 +46706,7 @@
       <c r="E162">
         <v>63</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46710,7 +46726,7 @@
       <c r="E163">
         <v>79</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46730,7 +46746,7 @@
       <c r="E164">
         <v>124</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46750,7 +46766,7 @@
       <c r="E165">
         <v>46</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46770,7 +46786,7 @@
       <c r="E166">
         <v>126</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46790,7 +46806,7 @@
       <c r="E167">
         <v>386</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46810,7 +46826,7 @@
       <c r="E168">
         <v>244</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46830,7 +46846,7 @@
       <c r="E169">
         <v>101</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46850,7 +46866,7 @@
       <c r="E170">
         <v>78</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46870,7 +46886,7 @@
       <c r="E171">
         <v>334</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46890,7 +46906,7 @@
       <c r="E172">
         <v>202</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46910,7 +46926,7 @@
       <c r="E173">
         <v>863</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46930,7 +46946,7 @@
       <c r="E174">
         <v>282</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46950,7 +46966,7 @@
       <c r="E175">
         <v>191</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46970,7 +46986,7 @@
       <c r="E176">
         <v>103</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -46990,7 +47006,7 @@
       <c r="E177">
         <v>638</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47010,7 +47026,7 @@
       <c r="E178">
         <v>97</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47030,7 +47046,7 @@
       <c r="E179">
         <v>156</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47050,7 +47066,7 @@
       <c r="E180">
         <v>462</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47070,7 +47086,7 @@
       <c r="E181">
         <v>157</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47090,7 +47106,7 @@
       <c r="E182">
         <v>75</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47110,7 +47126,7 @@
       <c r="E183">
         <v>72</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47130,7 +47146,7 @@
       <c r="E184">
         <v>204</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47150,7 +47166,7 @@
       <c r="E185">
         <v>50</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47170,7 +47186,7 @@
       <c r="E186">
         <v>177</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47190,7 +47206,7 @@
       <c r="E187">
         <v>172</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47210,7 +47226,7 @@
       <c r="E188">
         <v>155</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47230,7 +47246,7 @@
       <c r="E189">
         <v>141</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47250,7 +47266,7 @@
       <c r="E190">
         <v>168</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47270,7 +47286,7 @@
       <c r="E191">
         <v>142</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47290,7 +47306,7 @@
       <c r="E192">
         <v>132</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47310,7 +47326,7 @@
       <c r="E193">
         <v>135</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47330,7 +47346,7 @@
       <c r="E194">
         <v>149</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47350,7 +47366,7 @@
       <c r="E195">
         <v>195</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47370,7 +47386,7 @@
       <c r="E196">
         <v>62</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47390,7 +47406,7 @@
       <c r="E197">
         <v>57</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47410,7 +47426,7 @@
       <c r="E198">
         <v>21</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47430,7 +47446,7 @@
       <c r="E199">
         <v>62</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47450,7 +47466,7 @@
       <c r="E200">
         <v>280</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47470,7 +47486,7 @@
       <c r="E201">
         <v>241</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47490,7 +47506,7 @@
       <c r="E202">
         <v>158</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47510,7 +47526,7 @@
       <c r="E203">
         <v>180</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47530,7 +47546,7 @@
       <c r="E204">
         <v>59</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47550,7 +47566,7 @@
       <c r="E205">
         <v>224</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47570,7 +47586,7 @@
       <c r="E206">
         <v>51</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47590,7 +47606,7 @@
       <c r="E207">
         <v>165</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47610,7 +47626,7 @@
       <c r="E208">
         <v>176</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47630,7 +47646,7 @@
       <c r="E209">
         <v>281</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47650,7 +47666,7 @@
       <c r="E210">
         <v>213</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47670,7 +47686,7 @@
       <c r="E211">
         <v>107</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47690,7 +47706,7 @@
       <c r="E212">
         <v>232</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47710,7 +47726,7 @@
       <c r="E213">
         <v>199</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47730,7 +47746,7 @@
       <c r="E214">
         <v>140</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47750,7 +47766,7 @@
       <c r="E215">
         <v>163</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47770,7 +47786,7 @@
       <c r="E216">
         <v>311</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47790,7 +47806,7 @@
       <c r="E217">
         <v>417</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47810,7 +47826,7 @@
       <c r="E218">
         <v>122</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47830,7 +47846,7 @@
       <c r="E219">
         <v>271</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47850,7 +47866,7 @@
       <c r="E220">
         <v>405</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47870,7 +47886,7 @@
       <c r="E221">
         <v>163</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47890,7 +47906,7 @@
       <c r="E222">
         <v>375</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47910,7 +47926,7 @@
       <c r="E223">
         <v>232</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47930,7 +47946,7 @@
       <c r="E224">
         <v>38</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47950,7 +47966,7 @@
       <c r="E225">
         <v>182</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47970,7 +47986,7 @@
       <c r="E226">
         <v>63</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -47990,7 +48006,7 @@
       <c r="E227">
         <v>199</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48010,7 +48026,7 @@
       <c r="E228">
         <v>386</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48030,7 +48046,7 @@
       <c r="E229">
         <v>105</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48050,7 +48066,7 @@
       <c r="E230">
         <v>70</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48070,7 +48086,7 @@
       <c r="E231">
         <v>77</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48090,7 +48106,7 @@
       <c r="E232">
         <v>367</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48110,7 +48126,7 @@
       <c r="E233">
         <v>140</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48130,7 +48146,7 @@
       <c r="E234">
         <v>50</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48150,7 +48166,7 @@
       <c r="E235">
         <v>155</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48170,7 +48186,7 @@
       <c r="E236">
         <v>114</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48190,7 +48206,7 @@
       <c r="E237">
         <v>68</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48210,7 +48226,7 @@
       <c r="E238">
         <v>148</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48230,7 +48246,7 @@
       <c r="E239">
         <v>329</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48250,7 +48266,7 @@
       <c r="E240">
         <v>248</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48270,7 +48286,7 @@
       <c r="E241">
         <v>459</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48290,7 +48306,7 @@
       <c r="E242">
         <v>276</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48310,7 +48326,7 @@
       <c r="E243">
         <v>267</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48330,7 +48346,7 @@
       <c r="E244">
         <v>153</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48350,7 +48366,7 @@
       <c r="E245">
         <v>502</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48370,7 +48386,7 @@
       <c r="E246">
         <v>131</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48390,7 +48406,7 @@
       <c r="E247">
         <v>9</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48410,7 +48426,7 @@
       <c r="E248">
         <v>9</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48430,7 +48446,7 @@
       <c r="E249">
         <v>42</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48450,7 +48466,7 @@
       <c r="E250">
         <v>11</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48470,7 +48486,7 @@
       <c r="E251">
         <v>35</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48490,7 +48506,7 @@
       <c r="E252">
         <v>6</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48510,7 +48526,7 @@
       <c r="E253">
         <v>145</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48530,7 +48546,7 @@
       <c r="E254">
         <v>213</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48550,7 +48566,7 @@
       <c r="E255">
         <v>304</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48570,7 +48586,7 @@
       <c r="E256">
         <v>507</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48590,7 +48606,7 @@
       <c r="E257">
         <v>175</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48610,7 +48626,7 @@
       <c r="E258">
         <v>119</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48630,7 +48646,7 @@
       <c r="E259">
         <v>103</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48650,7 +48666,7 @@
       <c r="E260">
         <v>108</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48670,7 +48686,7 @@
       <c r="E261">
         <v>136</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48690,7 +48706,7 @@
       <c r="E262">
         <v>41</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48710,7 +48726,7 @@
       <c r="E263">
         <v>55</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48730,7 +48746,7 @@
       <c r="E264">
         <v>175</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48750,7 +48766,7 @@
       <c r="E265">
         <v>122</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48770,7 +48786,7 @@
       <c r="E266">
         <v>81</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48790,7 +48806,7 @@
       <c r="E267">
         <v>6</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48810,7 +48826,7 @@
       <c r="E268">
         <v>159</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48830,7 +48846,7 @@
       <c r="E269">
         <v>60</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48850,7 +48866,7 @@
       <c r="E270">
         <v>135</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48870,7 +48886,7 @@
       <c r="E271">
         <v>220</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48890,7 +48906,7 @@
       <c r="E272">
         <v>122</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48910,7 +48926,7 @@
       <c r="E273">
         <v>153</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48930,7 +48946,7 @@
       <c r="E274">
         <v>403</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48950,7 +48966,7 @@
       <c r="E275">
         <v>127</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48970,7 +48986,7 @@
       <c r="E276">
         <v>55</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -48990,7 +49006,7 @@
       <c r="E277">
         <v>48</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49010,7 +49026,7 @@
       <c r="E278">
         <v>163</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49030,7 +49046,7 @@
       <c r="E279">
         <v>122</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49050,7 +49066,7 @@
       <c r="E280">
         <v>123</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49070,7 +49086,7 @@
       <c r="E281">
         <v>152</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49090,7 +49106,7 @@
       <c r="E282">
         <v>33</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49110,7 +49126,7 @@
       <c r="E283">
         <v>277</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49130,7 +49146,7 @@
       <c r="E284">
         <v>49</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49150,7 +49166,7 @@
       <c r="E285">
         <v>249</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49170,7 +49186,7 @@
       <c r="E286">
         <v>543</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49190,7 +49206,7 @@
       <c r="E287">
         <v>86</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49210,7 +49226,7 @@
       <c r="E288">
         <v>189</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49230,7 +49246,7 @@
       <c r="E289">
         <v>60</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49250,7 +49266,7 @@
       <c r="E290">
         <v>40</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49270,7 +49286,7 @@
       <c r="E291">
         <v>50</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49290,7 +49306,7 @@
       <c r="E292">
         <v>65</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49310,7 +49326,7 @@
       <c r="E293">
         <v>31</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49330,7 +49346,7 @@
       <c r="E294">
         <v>288</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49350,7 +49366,7 @@
       <c r="E295">
         <v>226</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49370,7 +49386,7 @@
       <c r="E296">
         <v>138</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49390,7 +49406,7 @@
       <c r="E297">
         <v>254</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49410,7 +49426,7 @@
       <c r="E298">
         <v>507</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49430,7 +49446,7 @@
       <c r="E299">
         <v>349</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49450,7 +49466,7 @@
       <c r="E300">
         <v>151</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49470,7 +49486,7 @@
       <c r="E301">
         <v>53</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49490,7 +49506,7 @@
       <c r="E302">
         <v>147</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49510,7 +49526,7 @@
       <c r="E303">
         <v>127</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49530,7 +49546,7 @@
       <c r="E304">
         <v>70</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49550,7 +49566,7 @@
       <c r="E305">
         <v>431</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49570,7 +49586,7 @@
       <c r="E306">
         <v>88</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49590,7 +49606,7 @@
       <c r="E307">
         <v>90</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49610,7 +49626,7 @@
       <c r="E308">
         <v>99</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49630,7 +49646,7 @@
       <c r="E309">
         <v>79</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49650,7 +49666,7 @@
       <c r="E310">
         <v>57</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49670,7 +49686,7 @@
       <c r="E311">
         <v>137</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49690,7 +49706,7 @@
       <c r="E312">
         <v>178</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="6">
         <v>712.1</v>
       </c>
     </row>
@@ -49710,7 +49726,7 @@
       <c r="E313">
         <v>1817</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -49730,7 +49746,7 @@
       <c r="E314">
         <v>1560</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -49750,7 +49766,7 @@
       <c r="E315">
         <v>2436</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -49770,7 +49786,7 @@
       <c r="E316">
         <v>3184</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -49790,7 +49806,7 @@
       <c r="E317">
         <v>2196</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="6">
         <v>4891.7</v>
       </c>
     </row>
@@ -49810,7 +49826,7 @@
       <c r="E318">
         <v>98841</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="6">
         <v>4891.7</v>
       </c>
     </row>

--- a/ct_izin.xlsx
+++ b/ct_izin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efishery/Documents/Statistics Coach/DPMPTSP/Phyton codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38FF693-B109-724C-84FF-C187A93F51CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55BBD60-F408-544A-B5E2-809B49508249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51450,7 +51450,7 @@
   <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" activeCellId="1" sqref="K29 K24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ct_izin.xlsx
+++ b/ct_izin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efishery/Documents/Statistics Coach/DPMPTSP/Phyton codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55BBD60-F408-544A-B5E2-809B49508249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203794F0-A836-A446-B83D-44A6C50DD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_bidang" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="tot_status" sheetId="3" r:id="rId3"/>
     <sheet name="tot_bidang2" sheetId="4" r:id="rId4"/>
     <sheet name="cluster" sheetId="5" r:id="rId5"/>
+    <sheet name="pemohon" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cluster!$B$1:$B$317</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="348">
   <si>
     <t>service_point</t>
   </si>
@@ -1076,6 +1077,15 @@
   <si>
     <t>Cluster</t>
   </si>
+  <si>
+    <t>perorangan</t>
+  </si>
+  <si>
+    <t>perusahaan</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1094,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,8 +1115,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1143,12 +1167,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1160,6 +1193,10 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -22083,10 +22120,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C24F03B-4368-3046-940D-B122BA80FAC8}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:A317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+      <selection activeCell="H35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23686,10 +23726,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496E0C0-F47F-644C-A3CE-A5D8DBB8AB18}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30065,10 +30108,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FAD753-1982-4A4B-A7F5-D8BEEFAB704C}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C1942"/>
   <sheetViews>
-    <sheetView topLeftCell="A1902" workbookViewId="0">
-      <selection activeCell="B1943" sqref="B1943"/>
+    <sheetView topLeftCell="A1854" workbookViewId="0">
+      <selection activeCell="H35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51447,10 +51493,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7972F1-78E8-8D42-8BE8-F78812B9082D}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53995,4 +54044,4457 @@
   <autoFilter ref="B1:B317" xr:uid="{ED7972F1-78E8-8D42-8BE8-F78812B9082D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8D819C-E0AD-D346-A003-78E5F61D417B}">
+  <dimension ref="A1:D317"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1485</v>
+      </c>
+      <c r="C2">
+        <v>7295</v>
+      </c>
+      <c r="D2">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1535</v>
+      </c>
+      <c r="C4">
+        <v>534</v>
+      </c>
+      <c r="D4">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1166</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1853</v>
+      </c>
+      <c r="C6">
+        <v>420</v>
+      </c>
+      <c r="D6">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2127</v>
+      </c>
+      <c r="C7">
+        <v>397</v>
+      </c>
+      <c r="D7">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>941</v>
+      </c>
+      <c r="C8">
+        <v>138</v>
+      </c>
+      <c r="D8">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1283</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1113</v>
+      </c>
+      <c r="C10">
+        <v>130</v>
+      </c>
+      <c r="D10">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2217</v>
+      </c>
+      <c r="C11">
+        <v>220</v>
+      </c>
+      <c r="D11">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>1195</v>
+      </c>
+      <c r="C12">
+        <v>247</v>
+      </c>
+      <c r="D12">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>1802</v>
+      </c>
+      <c r="C13">
+        <v>223</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>1419</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>1116</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>423</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1880</v>
+      </c>
+      <c r="C17">
+        <v>213</v>
+      </c>
+      <c r="D17">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>2858</v>
+      </c>
+      <c r="C18">
+        <v>347</v>
+      </c>
+      <c r="D18">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>1659</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>2327</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+      <c r="D20">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1435</v>
+      </c>
+      <c r="C21">
+        <v>201</v>
+      </c>
+      <c r="D21">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>863</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>1865</v>
+      </c>
+      <c r="C23">
+        <v>433</v>
+      </c>
+      <c r="D23">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1262</v>
+      </c>
+      <c r="C24">
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>1735</v>
+      </c>
+      <c r="C25">
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>824</v>
+      </c>
+      <c r="C26">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>764</v>
+      </c>
+      <c r="C27">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>584</v>
+      </c>
+      <c r="C28">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>1365</v>
+      </c>
+      <c r="C29">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>701</v>
+      </c>
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>2058</v>
+      </c>
+      <c r="C31">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1224</v>
+      </c>
+      <c r="C32">
+        <v>185</v>
+      </c>
+      <c r="D32">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>1578</v>
+      </c>
+      <c r="C33">
+        <v>175</v>
+      </c>
+      <c r="D33">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>738</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>2281</v>
+      </c>
+      <c r="C35">
+        <v>318</v>
+      </c>
+      <c r="D35">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>940</v>
+      </c>
+      <c r="C36">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>1994</v>
+      </c>
+      <c r="C37">
+        <v>141</v>
+      </c>
+      <c r="D37">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>748</v>
+      </c>
+      <c r="C38">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>3065</v>
+      </c>
+      <c r="C39">
+        <v>111</v>
+      </c>
+      <c r="D39">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <v>295</v>
+      </c>
+      <c r="D40">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>619</v>
+      </c>
+      <c r="C41">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>598</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>1180</v>
+      </c>
+      <c r="C43">
+        <v>329</v>
+      </c>
+      <c r="D43">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>1738</v>
+      </c>
+      <c r="C44">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>1654</v>
+      </c>
+      <c r="C45">
+        <v>225</v>
+      </c>
+      <c r="D45">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>276</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>498</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>614</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>578</v>
+      </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>562</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>337</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>266</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>746</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>601</v>
+      </c>
+      <c r="C54">
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>499</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>828</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>1041</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>264</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>1645</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>1026</v>
+      </c>
+      <c r="C60">
+        <v>47</v>
+      </c>
+      <c r="D60">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>1235</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>441</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <v>321</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>686</v>
+      </c>
+      <c r="C64">
+        <v>58</v>
+      </c>
+      <c r="D64">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>1271</v>
+      </c>
+      <c r="C65">
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>1532</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67">
+        <v>1259</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68">
+        <v>831</v>
+      </c>
+      <c r="C68">
+        <v>53</v>
+      </c>
+      <c r="D68">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69">
+        <v>440</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70">
+        <v>549</v>
+      </c>
+      <c r="C70">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71">
+        <v>560</v>
+      </c>
+      <c r="C71">
+        <v>28</v>
+      </c>
+      <c r="D71">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72">
+        <v>194</v>
+      </c>
+      <c r="C72">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73">
+        <v>151</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74">
+        <v>2120</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75">
+        <v>1492</v>
+      </c>
+      <c r="C75">
+        <v>57</v>
+      </c>
+      <c r="D75">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76">
+        <v>484</v>
+      </c>
+      <c r="C76">
+        <v>40</v>
+      </c>
+      <c r="D76">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77">
+        <v>665</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78">
+        <v>1452</v>
+      </c>
+      <c r="C78">
+        <v>43</v>
+      </c>
+      <c r="D78">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79">
+        <v>715</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80">
+        <v>535</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81">
+        <v>331</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82">
+        <v>678</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83">
+        <v>486</v>
+      </c>
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
+        <v>690</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85">
+        <v>579</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86">
+        <v>319</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87">
+        <v>615</v>
+      </c>
+      <c r="C87">
+        <v>37</v>
+      </c>
+      <c r="D87">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88">
+        <v>633</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89">
+        <v>370</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90">
+        <v>823</v>
+      </c>
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <v>254</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92">
+        <v>1888</v>
+      </c>
+      <c r="C92">
+        <v>64</v>
+      </c>
+      <c r="D92">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93">
+        <v>728</v>
+      </c>
+      <c r="C93">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94">
+        <v>650</v>
+      </c>
+      <c r="C94">
+        <v>64</v>
+      </c>
+      <c r="D94">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95">
+        <v>804</v>
+      </c>
+      <c r="C95">
+        <v>53</v>
+      </c>
+      <c r="D95">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96">
+        <v>236</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97">
+        <v>280</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98">
+        <v>287</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99">
+        <v>358</v>
+      </c>
+      <c r="C99">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100">
+        <v>417</v>
+      </c>
+      <c r="C100">
+        <v>36</v>
+      </c>
+      <c r="D100">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101">
+        <v>272</v>
+      </c>
+      <c r="C101">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102">
+        <v>383</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103">
+        <v>596</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104">
+        <v>141</v>
+      </c>
+      <c r="C104">
+        <v>32</v>
+      </c>
+      <c r="D104">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105">
+        <v>142</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106">
+        <v>657</v>
+      </c>
+      <c r="C106">
+        <v>74</v>
+      </c>
+      <c r="D106">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107">
+        <v>201</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108">
+        <v>703</v>
+      </c>
+      <c r="C108">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109">
+        <v>380</v>
+      </c>
+      <c r="C109">
+        <v>22</v>
+      </c>
+      <c r="D109">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110">
+        <v>585</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+      <c r="D110">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111">
+        <v>432</v>
+      </c>
+      <c r="C111">
+        <v>24</v>
+      </c>
+      <c r="D111">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112">
+        <v>456</v>
+      </c>
+      <c r="C112">
+        <v>37</v>
+      </c>
+      <c r="D112">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113">
+        <v>196</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114">
+        <v>476</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115">
+        <v>425</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116">
+        <v>2959</v>
+      </c>
+      <c r="C116">
+        <v>56</v>
+      </c>
+      <c r="D116">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117">
+        <v>392</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118">
+        <v>2087</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+      <c r="D118">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119">
+        <v>439</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120">
+        <v>1552</v>
+      </c>
+      <c r="C120">
+        <v>45</v>
+      </c>
+      <c r="D120">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121">
+        <v>213</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122">
+        <v>316</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123">
+        <v>285</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124">
+        <v>735</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125">
+        <v>395</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126">
+        <v>457</v>
+      </c>
+      <c r="C126">
+        <v>24</v>
+      </c>
+      <c r="D126">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127">
+        <v>814</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>567</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129">
+        <v>959</v>
+      </c>
+      <c r="C129">
+        <v>29</v>
+      </c>
+      <c r="D129">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130">
+        <v>701</v>
+      </c>
+      <c r="C130">
+        <v>21</v>
+      </c>
+      <c r="D130">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131">
+        <v>1334</v>
+      </c>
+      <c r="C131">
+        <v>60</v>
+      </c>
+      <c r="D131">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132">
+        <v>489</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133">
+        <v>660</v>
+      </c>
+      <c r="C133">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134">
+        <v>631</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136">
+        <v>523</v>
+      </c>
+      <c r="C136">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137">
+        <v>385</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138">
+        <v>1565</v>
+      </c>
+      <c r="C138">
+        <v>72</v>
+      </c>
+      <c r="D138">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139">
+        <v>394</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+      <c r="D139">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140">
+        <v>567</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141">
+        <v>412</v>
+      </c>
+      <c r="C141">
+        <v>34</v>
+      </c>
+      <c r="D141">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142">
+        <v>692</v>
+      </c>
+      <c r="C142">
+        <v>39</v>
+      </c>
+      <c r="D142">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143">
+        <v>386</v>
+      </c>
+      <c r="C143">
+        <v>29</v>
+      </c>
+      <c r="D143">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144">
+        <v>411</v>
+      </c>
+      <c r="C144">
+        <v>75</v>
+      </c>
+      <c r="D144">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145">
+        <v>220</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+      <c r="D145">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146">
+        <v>368</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147">
+        <v>895</v>
+      </c>
+      <c r="C147">
+        <v>60</v>
+      </c>
+      <c r="D147">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148">
+        <v>456</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149">
+        <v>1137</v>
+      </c>
+      <c r="C149">
+        <v>52</v>
+      </c>
+      <c r="D149">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150">
+        <v>1423</v>
+      </c>
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151">
+        <v>456</v>
+      </c>
+      <c r="C151">
+        <v>34</v>
+      </c>
+      <c r="D151">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152">
+        <v>688</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153">
+        <v>2058</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154">
+        <v>974</v>
+      </c>
+      <c r="C154">
+        <v>44</v>
+      </c>
+      <c r="D154">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155">
+        <v>256</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156">
+        <v>529</v>
+      </c>
+      <c r="C156">
+        <v>26</v>
+      </c>
+      <c r="D156">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157">
+        <v>313</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158">
+        <v>266</v>
+      </c>
+      <c r="C158">
+        <v>25</v>
+      </c>
+      <c r="D158">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159">
+        <v>542</v>
+      </c>
+      <c r="C159">
+        <v>29</v>
+      </c>
+      <c r="D159">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160">
+        <v>604</v>
+      </c>
+      <c r="C160">
+        <v>37</v>
+      </c>
+      <c r="D160">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161">
+        <v>207</v>
+      </c>
+      <c r="C161">
+        <v>29</v>
+      </c>
+      <c r="D161">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162">
+        <v>416</v>
+      </c>
+      <c r="C162">
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163">
+        <v>263</v>
+      </c>
+      <c r="C163">
+        <v>18</v>
+      </c>
+      <c r="D163">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164">
+        <v>494</v>
+      </c>
+      <c r="C164">
+        <v>41</v>
+      </c>
+      <c r="D164">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165">
+        <v>174</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166">
+        <v>566</v>
+      </c>
+      <c r="C166">
+        <v>36</v>
+      </c>
+      <c r="D166">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167">
+        <v>751</v>
+      </c>
+      <c r="C167">
+        <v>101</v>
+      </c>
+      <c r="D167">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168">
+        <v>505</v>
+      </c>
+      <c r="C168">
+        <v>25</v>
+      </c>
+      <c r="D168">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169">
+        <v>332</v>
+      </c>
+      <c r="C169">
+        <v>29</v>
+      </c>
+      <c r="D169">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170">
+        <v>257</v>
+      </c>
+      <c r="C170">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171">
+        <v>702</v>
+      </c>
+      <c r="C171">
+        <v>35</v>
+      </c>
+      <c r="D171">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172">
+        <v>761</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
+      </c>
+      <c r="D172">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173">
+        <v>2960</v>
+      </c>
+      <c r="C173">
+        <v>35</v>
+      </c>
+      <c r="D173">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174">
+        <v>1323</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175">
+        <v>654</v>
+      </c>
+      <c r="C175">
+        <v>22</v>
+      </c>
+      <c r="D175">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176">
+        <v>681</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B177">
+        <v>1534</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B178">
+        <v>1015</v>
+      </c>
+      <c r="C178">
+        <v>18</v>
+      </c>
+      <c r="D178">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179">
+        <v>429</v>
+      </c>
+      <c r="C179">
+        <v>35</v>
+      </c>
+      <c r="D179">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B180">
+        <v>1518</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181">
+        <v>642</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182">
+        <v>456</v>
+      </c>
+      <c r="C182">
+        <v>30</v>
+      </c>
+      <c r="D182">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183">
+        <v>267</v>
+      </c>
+      <c r="C183">
+        <v>22</v>
+      </c>
+      <c r="D183">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184">
+        <v>620</v>
+      </c>
+      <c r="C184">
+        <v>62</v>
+      </c>
+      <c r="D184">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185">
+        <v>192</v>
+      </c>
+      <c r="C185">
+        <v>22</v>
+      </c>
+      <c r="D185">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186">
+        <v>680</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187">
+        <v>727</v>
+      </c>
+      <c r="C187">
+        <v>61</v>
+      </c>
+      <c r="D187">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B188">
+        <v>676</v>
+      </c>
+      <c r="C188">
+        <v>53</v>
+      </c>
+      <c r="D188">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B189">
+        <v>577</v>
+      </c>
+      <c r="C189">
+        <v>35</v>
+      </c>
+      <c r="D189">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190">
+        <v>630</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B191">
+        <v>429</v>
+      </c>
+      <c r="C191">
+        <v>22</v>
+      </c>
+      <c r="D191">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192">
+        <v>458</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193">
+        <v>438</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B194">
+        <v>684</v>
+      </c>
+      <c r="C194">
+        <v>16</v>
+      </c>
+      <c r="D194">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B195">
+        <v>698</v>
+      </c>
+      <c r="C195">
+        <v>27</v>
+      </c>
+      <c r="D195">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196">
+        <v>3227</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B197">
+        <v>818</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B198">
+        <v>381</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199">
+        <v>507</v>
+      </c>
+      <c r="C199">
+        <v>25</v>
+      </c>
+      <c r="D199">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B200">
+        <v>689</v>
+      </c>
+      <c r="C200">
+        <v>35</v>
+      </c>
+      <c r="D200">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201">
+        <v>840</v>
+      </c>
+      <c r="C201">
+        <v>60</v>
+      </c>
+      <c r="D201">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B202">
+        <v>799</v>
+      </c>
+      <c r="C202">
+        <v>26</v>
+      </c>
+      <c r="D202">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203">
+        <v>668</v>
+      </c>
+      <c r="C203">
+        <v>77</v>
+      </c>
+      <c r="D203">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B204">
+        <v>237</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+      <c r="D204">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205">
+        <v>533</v>
+      </c>
+      <c r="C205">
+        <v>48</v>
+      </c>
+      <c r="D205">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206">
+        <v>252</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+      <c r="D206">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B207">
+        <v>1097</v>
+      </c>
+      <c r="C207">
+        <v>29</v>
+      </c>
+      <c r="D207">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B208">
+        <v>496</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B209">
+        <v>864</v>
+      </c>
+      <c r="C209">
+        <v>37</v>
+      </c>
+      <c r="D209">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B210">
+        <v>560</v>
+      </c>
+      <c r="C210">
+        <v>22</v>
+      </c>
+      <c r="D210">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B211">
+        <v>407</v>
+      </c>
+      <c r="C211">
+        <v>17</v>
+      </c>
+      <c r="D211">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212">
+        <v>828</v>
+      </c>
+      <c r="C212">
+        <v>23</v>
+      </c>
+      <c r="D212">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B213">
+        <v>267</v>
+      </c>
+      <c r="C213">
+        <v>115</v>
+      </c>
+      <c r="D213">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B214">
+        <v>551</v>
+      </c>
+      <c r="C214">
+        <v>14</v>
+      </c>
+      <c r="D214">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B215">
+        <v>942</v>
+      </c>
+      <c r="C215">
+        <v>34</v>
+      </c>
+      <c r="D215">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B216">
+        <v>1221</v>
+      </c>
+      <c r="C216">
+        <v>23</v>
+      </c>
+      <c r="D216">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B217">
+        <v>1540</v>
+      </c>
+      <c r="C217">
+        <v>66</v>
+      </c>
+      <c r="D217">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218">
+        <v>345</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B219">
+        <v>555</v>
+      </c>
+      <c r="C219">
+        <v>52</v>
+      </c>
+      <c r="D219">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B220">
+        <v>1095</v>
+      </c>
+      <c r="C220">
+        <v>41</v>
+      </c>
+      <c r="D220">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B221">
+        <v>631</v>
+      </c>
+      <c r="C221">
+        <v>35</v>
+      </c>
+      <c r="D221">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B222">
+        <v>1510</v>
+      </c>
+      <c r="C222">
+        <v>64</v>
+      </c>
+      <c r="D222">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B223">
+        <v>857</v>
+      </c>
+      <c r="C223">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B224">
+        <v>385</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B225">
+        <v>761</v>
+      </c>
+      <c r="C225">
+        <v>71</v>
+      </c>
+      <c r="D225">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B226">
+        <v>398</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227">
+        <v>1633</v>
+      </c>
+      <c r="C227">
+        <v>52</v>
+      </c>
+      <c r="D227">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B228">
+        <v>1212</v>
+      </c>
+      <c r="C228">
+        <v>54</v>
+      </c>
+      <c r="D228">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B229">
+        <v>307</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B230">
+        <v>380</v>
+      </c>
+      <c r="C230">
+        <v>36</v>
+      </c>
+      <c r="D230">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B231">
+        <v>206</v>
+      </c>
+      <c r="C231">
+        <v>20</v>
+      </c>
+      <c r="D231">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B232">
+        <v>797</v>
+      </c>
+      <c r="C232">
+        <v>38</v>
+      </c>
+      <c r="D232">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B233">
+        <v>391</v>
+      </c>
+      <c r="C233">
+        <v>27</v>
+      </c>
+      <c r="D233">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B234">
+        <v>342</v>
+      </c>
+      <c r="C234">
+        <v>10</v>
+      </c>
+      <c r="D234">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B235">
+        <v>640</v>
+      </c>
+      <c r="C235">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B236">
+        <v>465</v>
+      </c>
+      <c r="C236">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B237">
+        <v>456</v>
+      </c>
+      <c r="C237">
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B238">
+        <v>751</v>
+      </c>
+      <c r="C238">
+        <v>10</v>
+      </c>
+      <c r="D238">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B239">
+        <v>973</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+      <c r="D239">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B240">
+        <v>580</v>
+      </c>
+      <c r="C240">
+        <v>64</v>
+      </c>
+      <c r="D240">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B241">
+        <v>1498</v>
+      </c>
+      <c r="C241">
+        <v>55</v>
+      </c>
+      <c r="D241">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B242">
+        <v>929</v>
+      </c>
+      <c r="C242">
+        <v>37</v>
+      </c>
+      <c r="D242">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243">
+        <v>834</v>
+      </c>
+      <c r="C243">
+        <v>20</v>
+      </c>
+      <c r="D243">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B244">
+        <v>968</v>
+      </c>
+      <c r="C244">
+        <v>17</v>
+      </c>
+      <c r="D244">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B245">
+        <v>1236</v>
+      </c>
+      <c r="C245">
+        <v>94</v>
+      </c>
+      <c r="D245">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B246">
+        <v>799</v>
+      </c>
+      <c r="C246">
+        <v>22</v>
+      </c>
+      <c r="D246">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247">
+        <v>357</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B248">
+        <v>430</v>
+      </c>
+      <c r="D248">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B249">
+        <v>309</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
+      </c>
+      <c r="D249">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B250">
+        <v>119</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251">
+        <v>620</v>
+      </c>
+      <c r="C251">
+        <v>20</v>
+      </c>
+      <c r="D251">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B252">
+        <v>223</v>
+      </c>
+      <c r="C252">
+        <v>7</v>
+      </c>
+      <c r="D252">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B253">
+        <v>234</v>
+      </c>
+      <c r="C253">
+        <v>34</v>
+      </c>
+      <c r="D253">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B254">
+        <v>779</v>
+      </c>
+      <c r="C254">
+        <v>20</v>
+      </c>
+      <c r="D254">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B255">
+        <v>1563</v>
+      </c>
+      <c r="C255">
+        <v>39</v>
+      </c>
+      <c r="D255">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B256">
+        <v>2258</v>
+      </c>
+      <c r="C256">
+        <v>57</v>
+      </c>
+      <c r="D256">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B257">
+        <v>547</v>
+      </c>
+      <c r="C257">
+        <v>21</v>
+      </c>
+      <c r="D257">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B258">
+        <v>304</v>
+      </c>
+      <c r="C258">
+        <v>17</v>
+      </c>
+      <c r="D258">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B259">
+        <v>874</v>
+      </c>
+      <c r="C259">
+        <v>59</v>
+      </c>
+      <c r="D259">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B260">
+        <v>1155</v>
+      </c>
+      <c r="C260">
+        <v>23</v>
+      </c>
+      <c r="D260">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B261">
+        <v>1309</v>
+      </c>
+      <c r="C261">
+        <v>16</v>
+      </c>
+      <c r="D261">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B262">
+        <v>313</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
+      <c r="D262">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B263">
+        <v>202</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B264">
+        <v>545</v>
+      </c>
+      <c r="C264">
+        <v>35</v>
+      </c>
+      <c r="D264">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B265">
+        <v>509</v>
+      </c>
+      <c r="C265">
+        <v>18</v>
+      </c>
+      <c r="D265">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B266">
+        <v>533</v>
+      </c>
+      <c r="C266">
+        <v>7</v>
+      </c>
+      <c r="D266">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B267">
+        <v>60</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B268">
+        <v>908</v>
+      </c>
+      <c r="C268">
+        <v>12</v>
+      </c>
+      <c r="D268">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B269">
+        <v>102</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+      <c r="D269">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B270">
+        <v>996</v>
+      </c>
+      <c r="C270">
+        <v>29</v>
+      </c>
+      <c r="D270">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B271">
+        <v>734</v>
+      </c>
+      <c r="C271">
+        <v>31</v>
+      </c>
+      <c r="D271">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B272">
+        <v>488</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+      <c r="D272">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B273">
+        <v>221</v>
+      </c>
+      <c r="C273">
+        <v>49</v>
+      </c>
+      <c r="D273">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B274">
+        <v>974</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B275">
+        <v>488</v>
+      </c>
+      <c r="C275">
+        <v>20</v>
+      </c>
+      <c r="D275">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B276">
+        <v>215</v>
+      </c>
+      <c r="C276">
+        <v>15</v>
+      </c>
+      <c r="D276">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B277">
+        <v>153</v>
+      </c>
+      <c r="C277">
+        <v>19</v>
+      </c>
+      <c r="D277">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B278">
+        <v>956</v>
+      </c>
+      <c r="C278">
+        <v>22</v>
+      </c>
+      <c r="D278">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B279">
+        <v>509</v>
+      </c>
+      <c r="C279">
+        <v>28</v>
+      </c>
+      <c r="D279">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B280">
+        <v>878</v>
+      </c>
+      <c r="C280">
+        <v>62</v>
+      </c>
+      <c r="D280">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B281">
+        <v>546</v>
+      </c>
+      <c r="C281">
+        <v>15</v>
+      </c>
+      <c r="D281">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B282">
+        <v>375</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B283">
+        <v>842</v>
+      </c>
+      <c r="C283">
+        <v>20</v>
+      </c>
+      <c r="D283">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B284">
+        <v>189</v>
+      </c>
+      <c r="C284">
+        <v>16</v>
+      </c>
+      <c r="D284">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B285">
+        <v>1387</v>
+      </c>
+      <c r="C285">
+        <v>31</v>
+      </c>
+      <c r="D285">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B286">
+        <v>2056</v>
+      </c>
+      <c r="C286">
+        <v>68</v>
+      </c>
+      <c r="D286">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B287">
+        <v>468</v>
+      </c>
+      <c r="C287">
+        <v>45</v>
+      </c>
+      <c r="D287">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B288">
+        <v>676</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+      <c r="D288">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B289">
+        <v>385</v>
+      </c>
+      <c r="C289">
+        <v>14</v>
+      </c>
+      <c r="D289">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B290">
+        <v>248</v>
+      </c>
+      <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B291">
+        <v>618</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B292">
+        <v>617</v>
+      </c>
+      <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B293">
+        <v>337</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B294">
+        <v>1223</v>
+      </c>
+      <c r="C294">
+        <v>58</v>
+      </c>
+      <c r="D294">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B295">
+        <v>429</v>
+      </c>
+      <c r="C295">
+        <v>34</v>
+      </c>
+      <c r="D295">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B296">
+        <v>259</v>
+      </c>
+      <c r="C296">
+        <v>33</v>
+      </c>
+      <c r="D296">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297">
+        <v>754</v>
+      </c>
+      <c r="C297">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B298">
+        <v>1104</v>
+      </c>
+      <c r="C298">
+        <v>89</v>
+      </c>
+      <c r="D298">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B299">
+        <v>865</v>
+      </c>
+      <c r="C299">
+        <v>69</v>
+      </c>
+      <c r="D299">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B300">
+        <v>819</v>
+      </c>
+      <c r="C300">
+        <v>40</v>
+      </c>
+      <c r="D300">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B301">
+        <v>419</v>
+      </c>
+      <c r="C301">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B302">
+        <v>778</v>
+      </c>
+      <c r="C302">
+        <v>13</v>
+      </c>
+      <c r="D302">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B303">
+        <v>895</v>
+      </c>
+      <c r="C303">
+        <v>17</v>
+      </c>
+      <c r="D303">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B304">
+        <v>360</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B305">
+        <v>1415</v>
+      </c>
+      <c r="C305">
+        <v>35</v>
+      </c>
+      <c r="D305">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B306">
+        <v>480</v>
+      </c>
+      <c r="C306">
+        <v>29</v>
+      </c>
+      <c r="D306">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B307">
+        <v>566</v>
+      </c>
+      <c r="C307">
+        <v>20</v>
+      </c>
+      <c r="D307">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B308">
+        <v>298</v>
+      </c>
+      <c r="C308">
+        <v>16</v>
+      </c>
+      <c r="D308">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B309">
+        <v>476</v>
+      </c>
+      <c r="C309">
+        <v>33</v>
+      </c>
+      <c r="D309">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B310">
+        <v>403</v>
+      </c>
+      <c r="C310">
+        <v>7</v>
+      </c>
+      <c r="D310">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B311">
+        <v>720</v>
+      </c>
+      <c r="C311">
+        <v>24</v>
+      </c>
+      <c r="D311">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B312">
+        <v>695</v>
+      </c>
+      <c r="C312">
+        <v>9</v>
+      </c>
+      <c r="D312">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B313">
+        <v>997</v>
+      </c>
+      <c r="C313">
+        <v>2588</v>
+      </c>
+      <c r="D313">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B314">
+        <v>606</v>
+      </c>
+      <c r="C314">
+        <v>2673</v>
+      </c>
+      <c r="D314">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B315">
+        <v>1022</v>
+      </c>
+      <c r="C315">
+        <v>4921</v>
+      </c>
+      <c r="D315">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B316">
+        <v>781</v>
+      </c>
+      <c r="C316">
+        <v>10511</v>
+      </c>
+      <c r="D316">
+        <v>11292</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B317">
+        <v>949</v>
+      </c>
+      <c r="C317">
+        <v>4152</v>
+      </c>
+      <c r="D317">
+        <v>5101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>